--- a/orcamentos/Cestas Boamesa _BoaBoaBoa.xlsx
+++ b/orcamentos/Cestas Boamesa _BoaBoaBoa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2DEBB-308A-4C1E-AAB0-A0C9B9F24992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83806118-4057-4D2C-92BC-2F846CC0D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,10 @@
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="Leste" sheetId="8" r:id="rId5"/>
-    <sheet name="Centro" sheetId="7" r:id="rId6"/>
+    <sheet name="Sul" sheetId="10" r:id="rId5"/>
+    <sheet name="Oeste" sheetId="9" r:id="rId6"/>
+    <sheet name="Leste" sheetId="8" r:id="rId7"/>
+    <sheet name="Centro" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -134,6 +136,12 @@
   </si>
   <si>
     <t>Anjo tocando corneta aramado, tridimensional, produzido com arames de alumínio, pintura em epóxi na cor branca, aplicação de conjuntos de LED branca frio, com fio branco (espessura do fio: 2x0,5mm²). Medida entre: mínimo: 1,95m de altura x 0,88m de largura x 0,68m de comprimento / máximo: 2,05m de altura x 0,98m de largura x 0,78m de comprimento. Tensão de 220v. Apropriado para uso externo. O Anjo iluminado tem potência total aproximada de 55W.</t>
+  </si>
+  <si>
+    <t>Oeste</t>
+  </si>
+  <si>
+    <t>Sul</t>
   </si>
 </sst>
 </file>
@@ -557,7 +565,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -593,16 +601,128 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D380C9-D2A2-4294-BC8D-0B5839547EE7}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06275F6-C291-44FF-8CDA-7E84293D49FD}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DF6EAF-77C3-441D-8F66-B56B6E3EDD23}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -649,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -677,7 +797,7 @@
       </c>
       <c r="M2">
         <f>C2*H2</f>
-        <v>35880</v>
+        <v>71760</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2728D794-63BB-4922-8FDA-355FBCB6E7E9}">
   <dimension ref="A1:M2"/>
   <sheetViews>

--- a/orcamentos/Cestas Boamesa _BoaBoaBoa.xlsx
+++ b/orcamentos/Cestas Boamesa _BoaBoaBoa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83806118-4057-4D2C-92BC-2F846CC0D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728ECC0-2C3B-47A8-BD67-B5FA03B32DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>Sul</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>AD04</t>
+  </si>
+  <si>
+    <t>1,91</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,96</t>
+  </si>
+  <si>
+    <t>3 Reis Magos, produzido em alumínio e pintura branca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Três Reis Magos aramados medindo cada um aproximadamente 1,70 de altura x 0,65m de largura e 0,70m de comprimento, produzidos em alumínio, com pintura em esmalte sintético automotivo na cor branca e verniz automotivo brilhante com detalhes de conjuntos com LEDs brancos, fio elétrico branco 2 x 0,5mm²,na tensão de 220v. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Três Reis Magos aramados, composto por Gaspar, Baltazar e Melchior, figuras tridimensionais, produzidas com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: 1,65m de altura x 0,60m de largura x 0,65m de comprimento / máximo: 1,75m de altura x 0,70m de largura x 0,75 de profundidade. </t>
   </si>
 </sst>
 </file>
@@ -465,7 +489,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -483,7 +507,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -527,6 +551,58 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44928</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44928</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -624,13 +700,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D380C9-D2A2-4294-BC8D-0B5839547EE7}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -663,6 +739,48 @@
       </c>
       <c r="K1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9671.2199999999993</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>77369.759999999995</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Cestas Boamesa _BoaBoaBoa.xlsx
+++ b/orcamentos/Cestas Boamesa _BoaBoaBoa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728ECC0-2C3B-47A8-BD67-B5FA03B32DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D992321-0365-435A-9172-0B4F6C0F268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t xml:space="preserve">Três Reis Magos aramados, composto por Gaspar, Baltazar e Melchior, figuras tridimensionais, produzidas com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: 1,65m de altura x 0,60m de largura x 0,65m de comprimento / máximo: 1,75m de altura x 0,70m de largura x 0,75 de profundidade. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizangela Wesolowski </t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_Cestas Boamesa .xlsx</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -507,7 +513,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -553,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -579,7 +585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -603,6 +609,38 @@
       </c>
       <c r="J4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44928</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
